--- a/note.T/06_jsp/0222_13.pagingreply.xlsx
+++ b/note.T/06_jsp/0222_13.pagingreply.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\webPro\note\06_jsp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JU\note.T\06_jsp\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="58">
   <si>
     <t>시작번호</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -109,11 +109,119 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>글1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>글2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>글3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>글1-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>글2-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>글3-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>글2-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>글2-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>글2-3-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>글3-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SELECT * FROM board ORDER BY ref DESC, re_step ASC;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. num은 1씩 증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pageCnt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Math.ceil(페이지전체갯수/블록당 페이지 갯수)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">          답변글이면 원글의 ref와 같다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  ⓑ 답변글 re_step = 원글 re_step + 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. ref - 원글이면 num과 같고,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3. re_step은 원글이면 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>블록수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>re_indent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4. re_indent - 원글이면 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">                답변글이면 원글의 re_indent+1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Math.ceil((double)전체글갯수/페이지당 갯수)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>페이지 수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시작번호 + 페이지당갯수 - 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>((현재페이지 -1)/블록당페이지수)*블록당페이지수 +1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(현재페이지 - 1) * 페이지당 갯수+ 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>0+1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">      큰 값이 있으면 그 글의 re_step을 re_step+1</t>
+    <t>0+1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -121,10 +229,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0+1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>0+1+1+1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -133,115 +237,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>글1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>글2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>글3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>글1-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>글2-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>글3-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>글2-2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>글2-3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>글2-3-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>글3-2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SELECT * FROM board ORDER BY ref DESC, re_step ASC;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. num은 1씩 증가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pageCnt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Math.ceil(페이지전체갯수/블록당 페이지 갯수)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">          답변글이면 원글의 ref와 같다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  ⓐ ref가 같고 원글보다 re_step가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  ⓑ 답변글 re_step = 원글 re_step + 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2. ref - 원글이면 num과 같고,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3. re_step은 원글이면 0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>블록수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>re_indent</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4. re_indent - 원글이면 0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">                답변글이면 원글의 re_indent+1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Math.ceil((double)전체글갯수/페이지당 갯수)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>페이지 수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>시작번호 + 페이지당갯수 - 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>((현재페이지 -1)/블록당페이지수)*블록당페이지수 +1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(현재페이지 - 1) * 페이지당 갯수+ 1</t>
+    <t>0+1+1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0+1+1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">      크면 해당 글의 re_step을 re_step+1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  ⓐ ref가 같고 원글의 re_step보다 re_step이</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -917,7 +925,7 @@
         <v>0</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -928,27 +936,27 @@
         <v>1</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="1" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="C16" s="21" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -959,7 +967,7 @@
         <v>2</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
@@ -985,7 +993,7 @@
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.625" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -1020,11 +1028,11 @@
         <v>19</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="F1" s="22"/>
       <c r="G1" s="7" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -1032,7 +1040,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C2" s="8">
         <v>1</v>
@@ -1045,7 +1053,7 @@
       </c>
       <c r="F2" s="23"/>
       <c r="G2" s="7" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -1053,7 +1061,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C3" s="11">
         <v>2</v>
@@ -1066,7 +1074,7 @@
       </c>
       <c r="F3" s="23"/>
       <c r="G3" s="8" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -1074,7 +1082,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C4" s="8">
         <v>3</v>
@@ -1087,7 +1095,7 @@
       </c>
       <c r="F4" s="23"/>
       <c r="G4" s="7" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -1095,16 +1103,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C5" s="8">
         <v>1</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" s="13">
-        <v>1</v>
+        <v>49</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>49</v>
       </c>
       <c r="F5" s="23"/>
       <c r="G5" s="7" t="s">
@@ -1116,20 +1124,20 @@
         <v>5</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C6" s="11">
         <v>2</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6" s="14">
-        <v>1</v>
+        <v>53</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>50</v>
       </c>
       <c r="F6" s="23"/>
       <c r="G6" s="8" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
@@ -1137,20 +1145,20 @@
         <v>6</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C7" s="8">
         <v>3</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" s="13">
-        <v>1</v>
+        <v>55</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>49</v>
       </c>
       <c r="F7" s="23"/>
       <c r="G7" s="7" t="s">
-        <v>23</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
@@ -1158,20 +1166,20 @@
         <v>7</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C8" s="11">
         <v>2</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="E8" s="14">
-        <v>1</v>
+        <v>52</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>49</v>
       </c>
       <c r="F8" s="23"/>
       <c r="G8" s="7" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
@@ -1179,20 +1187,20 @@
         <v>8</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C9" s="11">
         <v>2</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9" s="14">
-        <v>1</v>
+        <v>49</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>49</v>
       </c>
       <c r="F9" s="23"/>
       <c r="G9" s="7" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
@@ -1200,20 +1208,20 @@
         <v>9</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C10" s="11">
         <v>2</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="E10" s="14">
-        <v>2</v>
+        <v>51</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>54</v>
       </c>
       <c r="F10" s="23"/>
       <c r="G10" s="8" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
@@ -1221,23 +1229,23 @@
         <v>10</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C11" s="8">
         <v>3</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="E11" s="13">
-        <v>1</v>
+        <v>49</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>50</v>
       </c>
       <c r="F11" s="24"/>
       <c r="G11" s="6"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B13" s="3" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">

--- a/note.T/06_jsp/0222_13.pagingreply.xlsx
+++ b/note.T/06_jsp/0222_13.pagingreply.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JU\note.T\06_jsp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\webPro\note\06_jsp\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12240" activeTab="1"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12240"/>
   </bookViews>
   <sheets>
     <sheet name="페이징" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="57">
   <si>
     <t>시작번호</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -38,130 +38,178 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>블록당 페이지수 : 10개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제목</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ref</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>startRow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>endRow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BLOCKSIZE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>startPage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>endPage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PAGESIZE</t>
+  </si>
+  <si>
+    <t>한 페이지당 글 수 :10개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>currentPage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pageNum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현재 몇 페이지인지(int)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현재 몇 페이지인지(String)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>re_step</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>num</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">                답변글이면 다음과 같이 진행한다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">      큰 값이 있으면 그 글의 re_step을 re_step+1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>글1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>글2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>글3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>글1-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>글2-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>글3-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>글2-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>글2-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>글2-3-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>글3-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SELECT * FROM board ORDER BY ref DESC, re_step ASC;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. num은 1씩 증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pageCnt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Math.ceil(페이지전체갯수/블록당 페이지 갯수)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  ⓑ 답변글 re_step = 원글 re_step + 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. ref - 원글이면 num과 같고,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>블록수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>re_indent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4. re_indent - 원글이면 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">                답변글이면 원글의 re_indent+1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>페이지 수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시작번호 + 페이지당갯수 - 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>((현재페이지 -1)/블록당페이지수)*블록당페이지수 +1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(현재페이지 - 1) * 페이지당 갯수+ 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>시작페이지 + 블록당페이지 수 -1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>블록당 페이지수 : 10개</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>제목</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ref</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>startRow</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>endRow</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BLOCKSIZE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>startPage</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>endPage</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PAGESIZE</t>
-  </si>
-  <si>
-    <t>한 페이지당 글 수 :10개</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>currentPage</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pageNum</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>현재 몇 페이지인지(int)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>현재 몇 페이지인지(String)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>re_step</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>num</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">                답변글이면 다음과 같이 진행한다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>글1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>글2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>글3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>글1-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>글2-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>글3-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>글2-2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>글2-3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>글2-3-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>글3-2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SELECT * FROM board ORDER BY ref DESC, re_step ASC;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. num은 1씩 증가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pageCnt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Math.ceil(페이지전체갯수/블록당 페이지 갯수)</t>
+    <t>Math.ceil((double)전체글갯수/페이지당 갯수)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -169,51 +217,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">  ⓑ 답변글 re_step = 원글 re_step + 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2. ref - 원글이면 num과 같고,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>3. re_step은 원글이면 0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>블록수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>re_indent</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4. re_indent - 원글이면 0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">                답변글이면 원글의 re_indent+1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Math.ceil((double)전체글갯수/페이지당 갯수)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>페이지 수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>시작번호 + 페이지당갯수 - 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>((현재페이지 -1)/블록당페이지수)*블록당페이지수 +1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(현재페이지 - 1) * 페이지당 갯수+ 1</t>
+    <t xml:space="preserve">  ⓐ ref가 같고 원글의 re_step보다 re_step이</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -221,35 +229,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>0+1+1+1+1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0+1+1+1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0+1+1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0+1+1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>0+1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0+1+1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0+1+1+1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0+1+1+1+1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0+1+1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0+1+1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">      크면 해당 글의 re_step을 re_step+1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  ⓐ ref가 같고 원글의 re_step보다 re_step이</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -260,7 +256,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -324,8 +320,16 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -335,6 +339,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -405,7 +415,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -442,9 +452,6 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -454,22 +461,46 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -815,7 +846,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
@@ -828,20 +859,20 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>14</v>
       </c>
       <c r="C1" s="5"/>
       <c r="D1" s="5"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
@@ -854,19 +885,19 @@
     </row>
     <row r="4" spans="1:4" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C4" s="1"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C5" s="1"/>
     </row>
@@ -919,24 +950,24 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -944,41 +975,41 @@
         <v>34</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C16" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" s="16" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>4</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -990,10 +1021,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:K25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView topLeftCell="E8" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.625" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -1004,9 +1035,9 @@
     <col min="4" max="4" width="10.25" style="3" customWidth="1"/>
     <col min="5" max="5" width="7.375" style="3" customWidth="1"/>
     <col min="6" max="6" width="1.875" style="3" customWidth="1"/>
-    <col min="7" max="7" width="38.375" style="3" customWidth="1"/>
-    <col min="8" max="8" width="4.625" style="3"/>
-    <col min="9" max="9" width="4.875" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="36.875" style="3" customWidth="1"/>
+    <col min="8" max="8" width="13" style="3" customWidth="1"/>
+    <col min="9" max="9" width="12.875" style="3" customWidth="1"/>
     <col min="10" max="10" width="12.375" style="3" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="3.75" style="3" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12.625" style="3" bestFit="1" customWidth="1"/>
@@ -1014,52 +1045,49 @@
     <col min="14" max="16384" width="4.625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="8" t="s">
-        <v>7</v>
-      </c>
       <c r="D1" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="F1" s="22"/>
+        <v>39</v>
+      </c>
+      <c r="F1" s="29"/>
       <c r="G1" s="7" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="9">
-        <v>1</v>
-      </c>
-      <c r="B2" s="6" t="s">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" s="18"/>
+      <c r="B2" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="8">
-        <v>1</v>
-      </c>
-      <c r="D2" s="8">
+      <c r="C2" s="20">
+        <v>1</v>
+      </c>
+      <c r="D2" s="20">
         <v>0</v>
       </c>
-      <c r="E2" s="8">
+      <c r="E2" s="20">
         <v>0</v>
       </c>
-      <c r="F2" s="23"/>
+      <c r="F2" s="30"/>
       <c r="G2" s="7" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="10">
-        <v>2</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="I2" s="17"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" s="10"/>
       <c r="B3" s="11" t="s">
         <v>23</v>
       </c>
@@ -1072,15 +1100,13 @@
       <c r="E3" s="11">
         <v>0</v>
       </c>
-      <c r="F3" s="23"/>
+      <c r="F3" s="30"/>
       <c r="G3" s="8" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="9">
-        <v>3</v>
-      </c>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" s="9"/>
       <c r="B4" s="6" t="s">
         <v>24</v>
       </c>
@@ -1093,237 +1119,400 @@
       <c r="E4" s="8">
         <v>0</v>
       </c>
-      <c r="F4" s="23"/>
+      <c r="F4" s="30"/>
       <c r="G4" s="7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="12">
-        <v>4</v>
-      </c>
-      <c r="B5" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" s="21"/>
+      <c r="B5" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="8">
-        <v>1</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="E5" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="F5" s="23"/>
+      <c r="C5" s="20">
+        <v>1</v>
+      </c>
+      <c r="D5" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="E5" s="22">
+        <v>1</v>
+      </c>
+      <c r="F5" s="30"/>
       <c r="G5" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="10">
-        <v>5</v>
-      </c>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" s="10"/>
       <c r="B6" s="11" t="s">
         <v>26</v>
       </c>
       <c r="C6" s="11">
         <v>2</v>
       </c>
-      <c r="D6" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="E6" s="14" t="s">
+      <c r="D6" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="E6" s="13">
+        <v>1</v>
+      </c>
+      <c r="F6" s="30"/>
+      <c r="G6" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="F6" s="23"/>
-      <c r="G6" s="8" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="9">
-        <v>6</v>
-      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" s="9"/>
       <c r="B7" s="6" t="s">
         <v>27</v>
       </c>
       <c r="C7" s="8">
         <v>3</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="D7" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="E7" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="F7" s="23"/>
+      <c r="E7" s="12">
+        <v>1</v>
+      </c>
+      <c r="F7" s="30"/>
       <c r="G7" s="7" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="10">
-        <v>7</v>
-      </c>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" s="10"/>
       <c r="B8" s="11" t="s">
         <v>28</v>
       </c>
       <c r="C8" s="11">
         <v>2</v>
       </c>
-      <c r="D8" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="E8" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="F8" s="23"/>
+      <c r="D8" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="E8" s="13">
+        <v>1</v>
+      </c>
+      <c r="F8" s="30"/>
       <c r="G8" s="7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="10">
-        <v>8</v>
-      </c>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" s="10"/>
       <c r="B9" s="11" t="s">
         <v>29</v>
       </c>
       <c r="C9" s="11">
         <v>2</v>
       </c>
-      <c r="D9" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="E9" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="F9" s="23"/>
+      <c r="D9" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="E9" s="13">
+        <v>1</v>
+      </c>
+      <c r="F9" s="30"/>
       <c r="G9" s="7" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="10">
-        <v>9</v>
-      </c>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" s="10"/>
       <c r="B10" s="11" t="s">
         <v>30</v>
       </c>
       <c r="C10" s="11">
         <v>2</v>
       </c>
-      <c r="D10" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="E10" s="14" t="s">
+      <c r="D10" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="F10" s="23"/>
+      <c r="E10" s="13">
+        <v>2</v>
+      </c>
+      <c r="F10" s="30"/>
       <c r="G10" s="8" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="9">
-        <v>10</v>
-      </c>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" s="9"/>
       <c r="B11" s="6" t="s">
         <v>31</v>
       </c>
       <c r="C11" s="8">
         <v>3</v>
       </c>
-      <c r="D11" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="E11" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="F11" s="24"/>
+      <c r="D11" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="E11" s="12">
+        <v>1</v>
+      </c>
+      <c r="F11" s="31"/>
       <c r="G11" s="6"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B13" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="17"/>
-      <c r="B14" s="17"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="18"/>
-      <c r="B15" s="17"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="18"/>
-      <c r="B16" s="17"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="16"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="18"/>
-      <c r="B17" s="17"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="18"/>
-      <c r="B18" s="17"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="18"/>
-      <c r="B19" s="17"/>
-      <c r="C19" s="15"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="16"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="18"/>
-      <c r="B20" s="17"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="16"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="18"/>
-      <c r="B21" s="17"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="19"/>
-      <c r="E21" s="16"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="18"/>
-      <c r="B22" s="17"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="16"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="18"/>
-      <c r="B23" s="17"/>
-      <c r="C23" s="15"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="15"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="20"/>
-      <c r="B24" s="17"/>
-      <c r="C24" s="15"/>
-      <c r="D24" s="16"/>
-      <c r="E24" s="16"/>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" s="15"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="23"/>
+      <c r="J14" s="23"/>
+      <c r="K14" s="23"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="G15" s="26"/>
+      <c r="H15" s="27"/>
+      <c r="I15" s="24"/>
+      <c r="J15" s="24"/>
+      <c r="K15" s="24"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" s="18">
+        <v>1</v>
+      </c>
+      <c r="B16" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="20">
+        <v>1</v>
+      </c>
+      <c r="D16" s="20">
+        <v>0</v>
+      </c>
+      <c r="E16" s="20">
+        <v>0</v>
+      </c>
+      <c r="G16" s="26"/>
+      <c r="H16" s="27"/>
+      <c r="I16" s="24"/>
+      <c r="J16" s="25"/>
+      <c r="K16" s="25"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A17" s="10">
+        <v>2</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" s="11">
+        <v>2</v>
+      </c>
+      <c r="D17" s="11">
+        <v>0</v>
+      </c>
+      <c r="E17" s="11">
+        <v>0</v>
+      </c>
+      <c r="G17" s="26"/>
+      <c r="H17" s="27"/>
+      <c r="I17" s="24"/>
+      <c r="J17" s="25"/>
+      <c r="K17" s="25"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18" s="9">
+        <v>3</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" s="8">
+        <v>3</v>
+      </c>
+      <c r="D18" s="8">
+        <v>0</v>
+      </c>
+      <c r="E18" s="8">
+        <v>0</v>
+      </c>
+      <c r="G18" s="26"/>
+      <c r="H18" s="24"/>
+      <c r="I18" s="24"/>
+      <c r="J18" s="24"/>
+      <c r="K18" s="24"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A19" s="21">
+        <v>4</v>
+      </c>
+      <c r="B19" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" s="20">
+        <v>1</v>
+      </c>
+      <c r="D19" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="E19" s="22">
+        <v>1</v>
+      </c>
+      <c r="G19" s="26"/>
+      <c r="H19" s="24"/>
+      <c r="I19" s="24"/>
+      <c r="J19" s="25"/>
+      <c r="K19" s="25"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A20" s="10">
+        <v>5</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" s="11">
+        <v>2</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="E20" s="13">
+        <v>1</v>
+      </c>
+      <c r="G20" s="26"/>
+      <c r="H20" s="24"/>
+      <c r="I20" s="24"/>
+      <c r="J20" s="25"/>
+      <c r="K20" s="25"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A21" s="9">
+        <v>6</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" s="8">
+        <v>3</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="E21" s="12">
+        <v>1</v>
+      </c>
+      <c r="G21" s="26"/>
+      <c r="H21" s="24"/>
+      <c r="I21" s="24"/>
+      <c r="J21" s="25"/>
+      <c r="K21" s="25"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A22" s="10">
+        <v>7</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" s="11">
+        <v>2</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="E22" s="13">
+        <v>1</v>
+      </c>
+      <c r="G22" s="26"/>
+      <c r="H22" s="24"/>
+      <c r="I22" s="24"/>
+      <c r="J22" s="25"/>
+      <c r="K22" s="25"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A23" s="10">
+        <v>8</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C23" s="11">
+        <v>2</v>
+      </c>
+      <c r="D23" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="E23" s="13">
+        <v>1</v>
+      </c>
+      <c r="G23" s="26"/>
+      <c r="H23" s="27"/>
+      <c r="I23" s="24"/>
+      <c r="J23" s="24"/>
+      <c r="K23" s="24"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A24" s="10">
+        <v>9</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C24" s="11">
+        <v>2</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="E24" s="13">
+        <v>2</v>
+      </c>
+      <c r="G24" s="28"/>
+      <c r="H24" s="27"/>
+      <c r="I24" s="24"/>
+      <c r="J24" s="25"/>
+      <c r="K24" s="25"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A25" s="9">
+        <v>10</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C25" s="8">
+        <v>3</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="E25" s="12">
+        <v>1</v>
+      </c>
+      <c r="G25" s="23"/>
+      <c r="H25" s="23"/>
+      <c r="I25" s="23"/>
+      <c r="J25" s="23"/>
+      <c r="K25" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="1">
